--- a/ebs_with_tracing/forms/app/outcome_report.xlsx
+++ b/ebs_with_tracing/forms/app/outcome_report.xlsx
@@ -613,10 +613,10 @@
     <t>Was ${patient_display_name} released from isolation/hospital?</t>
   </si>
   <si>
-    <t>If ${patient_display_name} was released from isolation/hospital, date of last laboratory test</t>
-  </si>
-  <si>
-    <t>If${patient_display_name} was released from isolation/hospital, results of last test</t>
+    <t>Date of last laboratory test</t>
+  </si>
+  <si>
+    <t>Results of last test</t>
   </si>
 </sst>
 </file>
@@ -1167,10 +1167,10 @@
   <dimension ref="A1:AJ73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7358,7 +7358,7 @@
       </c>
       <c r="C2" s="19">
         <f ca="1">NOW()</f>
-        <v>44144.531856944443</v>
+        <v>44144.534573726851</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>86</v>

--- a/ebs_with_tracing/forms/app/outcome_report.xlsx
+++ b/ebs_with_tracing/forms/app/outcome_report.xlsx
@@ -556,9 +556,6 @@
     <t>outcome_date_of_outcome</t>
   </si>
   <si>
-    <t>Date of Release from isolation/hospital or Date of Death</t>
-  </si>
-  <si>
     <t>outcome_lab_date</t>
   </si>
   <si>
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t>Results of last test</t>
+  </si>
+  <si>
+    <t>Date of Release from isolation/hospital</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1170,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2999,7 +2999,7 @@
         <v>171</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
@@ -3043,7 +3043,7 @@
         <v>174</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -3053,7 +3053,7 @@
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
       <c r="K41" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
@@ -3086,10 +3086,10 @@
         <v>105</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
@@ -3099,7 +3099,7 @@
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
       <c r="K42" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
@@ -3128,13 +3128,13 @@
     </row>
     <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="B43" s="42" t="s">
-        <v>178</v>
-      </c>
       <c r="C43" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -3144,7 +3144,7 @@
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
       <c r="K43" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
@@ -3834,7 +3834,7 @@
         <v>89</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C59" s="35" t="s">
         <v>38</v>
@@ -3857,7 +3857,7 @@
       <c r="S59" s="35"/>
       <c r="T59" s="35"/>
       <c r="U59" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
@@ -3882,7 +3882,7 @@
         <v>89</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C60" s="35" t="s">
         <v>38</v>
@@ -3905,7 +3905,7 @@
       <c r="S60" s="35"/>
       <c r="T60" s="35"/>
       <c r="U60" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V60" s="35"/>
       <c r="W60" s="35"/>
@@ -4852,40 +4852,40 @@
     </row>
     <row r="15" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>181</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>162</v>
@@ -7354,11 +7354,11 @@
         <v>71</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" s="19">
         <f ca="1">NOW()</f>
-        <v>44144.534573726851</v>
+        <v>44144.53591875</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>86</v>
